--- a/1866-1873-Field-Diaries/LJs/previous/Last Journals Headers and Footers Vol. 2.xlsx
+++ b/1866-1873-Field-Diaries/LJs/previous/Last Journals Headers and Footers Vol. 2.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="0" windowWidth="14820" windowHeight="13640" tabRatio="500"/>
+    <workbookView xWindow="8680" yWindow="0" windowWidth="14820" windowHeight="13640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Headers" sheetId="1" r:id="rId1"/>
     <sheet name="Footers" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Footers!$A$1:$E$417</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="299">
   <si>
     <t>iv</t>
   </si>
@@ -981,6 +984,144 @@
   </si>
   <si>
     <t>NOTE: Frozen pdf prevented me from getting this page's header.</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;a2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;B&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;B2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;C&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;C2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;D&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;D2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;E&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;E2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;F&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;F2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;G&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;G2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;H&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;H2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;I&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;I2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;K&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;K2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;L&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;L2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;M&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;M2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;N&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;N2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;O&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;O2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;P&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;P2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;Q&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;Q2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;R&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;R2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;S&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;S2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;T&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;T2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;U&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;U2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;X&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;X2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;Y&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;Y2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;Z&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw place="inspace"&gt;&lt;seg rend="right"&gt;Z2&lt;/seg&gt;&lt;/fw&gt;</t>
+  </si>
+  <si>
+    <t>&lt;fw type="catch"&gt;&lt;seg rend="smallcaps"&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend="right"&gt;2A&lt;/seg&gt;&lt;/fw&gt;</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1209,224 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="245">
+  <cellStyleXfs count="461">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1344,7 +1701,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="245">
+  <cellStyles count="461">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1467,6 +1824,114 @@
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1589,6 +2054,114 @@
     <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1920,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="D292" sqref="D292"/>
+    <sheetView topLeftCell="A289" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7296,2371 +7869,2702 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D416"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A2:E417"/>
   <sheetViews>
-    <sheetView topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="C385" sqref="C385"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E388" sqref="E388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3">
+    <row r="2" spans="1:5" hidden="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
+    <row r="3" spans="1:5" hidden="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
+    <row r="4" spans="1:5" hidden="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
+    <row r="5" spans="1:5" hidden="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5" hidden="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
+    <row r="8" spans="1:5" hidden="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
+    <row r="9" spans="1:5" hidden="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="D10" t="str">
+        <f>"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C10&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;a2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
+    <row r="12" spans="1:5" hidden="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3">
+    <row r="13" spans="1:5" hidden="1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="14" spans="1:5" hidden="1">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3">
+    <row r="15" spans="1:5" hidden="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
+      <c r="D16" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C16&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;B&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
+      <c r="D18" t="str">
+        <f t="shared" ref="D18" si="0">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C18&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;B2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3">
+    <row r="20" spans="1:5" hidden="1">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3">
+    <row r="21" spans="1:5" hidden="1">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
+    <row r="22" spans="1:5" hidden="1">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
+    <row r="23" spans="1:5" hidden="1">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
+    <row r="24" spans="1:5" hidden="1">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
+    <row r="25" spans="1:5" hidden="1">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
+    <row r="26" spans="1:5" hidden="1">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
+    <row r="27" spans="1:5" hidden="1">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
+    <row r="28" spans="1:5" hidden="1">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3">
+    <row r="29" spans="1:5" hidden="1">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3">
+    <row r="30" spans="1:5" hidden="1">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
+    <row r="31" spans="1:5" hidden="1">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
+    <row r="32" spans="1:5">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
+      <c r="D32" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C32&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;C&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
+      <c r="D34" t="str">
+        <f t="shared" ref="D34" si="1">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C34&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;C2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="2" customFormat="1">
-      <c r="A35" s="2">
+    <row r="36" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
+    <row r="37" spans="1:5" hidden="1">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3">
+    <row r="38" spans="1:5" hidden="1">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3">
+    <row r="39" spans="1:5" hidden="1">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
+    <row r="40" spans="1:5" hidden="1">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
+    <row r="41" spans="1:5" hidden="1">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
+    <row r="42" spans="1:5" hidden="1">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
+    <row r="43" spans="1:5" hidden="1">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
+    <row r="44" spans="1:5" hidden="1">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
+    <row r="45" spans="1:5" hidden="1">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
+    <row r="46" spans="1:5" hidden="1">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3">
+    <row r="47" spans="1:5" hidden="1">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3">
+    <row r="48" spans="1:5" hidden="1">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="3">
+    <row r="49" spans="1:5" hidden="1">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3">
+    <row r="50" spans="1:5">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>38</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C50" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3">
+      <c r="D50" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C50&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;D&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="3">
+    <row r="52" spans="1:5">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="D51" t="s">
+      <c r="C52" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3">
+      <c r="D52" t="str">
+        <f t="shared" ref="D52" si="2">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C52&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;D2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3">
+    <row r="54" spans="1:5" hidden="1">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3">
+    <row r="55" spans="1:5" hidden="1">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="3">
+    <row r="56" spans="1:5" hidden="1">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="3">
+    <row r="57" spans="1:5" hidden="1">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="3">
+    <row r="58" spans="1:5" hidden="1">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="3">
+    <row r="59" spans="1:5" hidden="1">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="3">
+    <row r="60" spans="1:5" hidden="1">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="3">
+    <row r="61" spans="1:5" hidden="1">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="3">
+    <row r="62" spans="1:5" hidden="1">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="2" customFormat="1">
-      <c r="A62" s="2">
+    <row r="63" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="3">
+    <row r="64" spans="1:5" hidden="1">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="3">
+    <row r="65" spans="1:5" hidden="1">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="3">
+    <row r="66" spans="1:5" hidden="1">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="3">
+    <row r="67" spans="1:5" hidden="1">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="3">
+    <row r="68" spans="1:5">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>38</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C68" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="3">
+      <c r="D68" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C68&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;E&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="3">
+    <row r="70" spans="1:5">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C70" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="3">
+      <c r="D70" t="str">
+        <f t="shared" ref="D70" si="3">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C70&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;E2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="2" customFormat="1">
-      <c r="A71" s="2">
+    <row r="72" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="3">
+    <row r="73" spans="1:5" hidden="1">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="3">
+    <row r="74" spans="1:5" hidden="1">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="3">
+    <row r="75" spans="1:5" hidden="1">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="3">
+    <row r="76" spans="1:5" hidden="1">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="2" customFormat="1">
-      <c r="A76" s="2">
+    <row r="77" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="3">
+    <row r="78" spans="1:5" hidden="1">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="3">
+    <row r="79" spans="1:5" hidden="1">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="3">
+    <row r="80" spans="1:5" hidden="1">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="3">
+    <row r="81" spans="1:5" hidden="1">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="3">
+    <row r="82" spans="1:5" hidden="1">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="3">
+    <row r="83" spans="1:5" hidden="1">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="3">
+    <row r="84" spans="1:5" hidden="1">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="3">
+    <row r="85" spans="1:5" hidden="1">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="3">
+    <row r="86" spans="1:5" hidden="1">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="3">
+    <row r="87" spans="1:5" hidden="1">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="3">
+    <row r="88" spans="1:5">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>38</v>
       </c>
-      <c r="D87" t="s">
+      <c r="C88" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="3">
+      <c r="D88" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C88&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;F&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E88" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="3">
+    <row r="90" spans="1:5">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="D89" t="s">
+      <c r="C90" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="3">
+      <c r="D90" t="str">
+        <f t="shared" ref="D90" si="4">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C90&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;F2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E90" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="3">
+    <row r="92" spans="1:5" hidden="1">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="3">
+    <row r="93" spans="1:5" hidden="1">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="3">
+    <row r="94" spans="1:5" hidden="1">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="3">
+    <row r="95" spans="1:5" hidden="1">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="3">
+    <row r="96" spans="1:5" hidden="1">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="3">
+    <row r="97" spans="1:5" hidden="1">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="3">
+    <row r="98" spans="1:5" hidden="1">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="3">
+    <row r="99" spans="1:5" hidden="1">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="3">
+    <row r="100" spans="1:5" hidden="1">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="3">
+    <row r="101" spans="1:5" hidden="1">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="3">
+    <row r="102" spans="1:5" hidden="1">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="3">
+    <row r="103" spans="1:5" hidden="1">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="3">
+    <row r="104" spans="1:5">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>38</v>
       </c>
-      <c r="D103" t="s">
+      <c r="C104" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="3">
+      <c r="D104" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C104&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;G&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E104" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="3">
+    <row r="106" spans="1:5">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="D105" t="s">
+      <c r="C106" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="3">
+      <c r="D106" t="str">
+        <f t="shared" ref="D106" si="5">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C106&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;G2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E106" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="3">
+    <row r="108" spans="1:5" hidden="1">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="3">
+    <row r="109" spans="1:5" hidden="1">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="3">
+    <row r="110" spans="1:5" hidden="1">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="3">
+    <row r="111" spans="1:5" hidden="1">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="3">
+    <row r="112" spans="1:5" hidden="1">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="3">
+    <row r="113" spans="1:5" hidden="1">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="3">
+    <row r="114" spans="1:5" hidden="1">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="3">
+    <row r="115" spans="1:5" hidden="1">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="3">
+    <row r="116" spans="1:5" hidden="1">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="3">
+    <row r="117" spans="1:5" hidden="1">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="3">
+    <row r="118" spans="1:5" hidden="1">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="2" customFormat="1">
-      <c r="A118" s="2">
+    <row r="119" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="3">
+    <row r="120" spans="1:5" hidden="1">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="3">
+    <row r="121" spans="1:5" hidden="1">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="3">
+    <row r="122" spans="1:5">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>38</v>
       </c>
-      <c r="D121" t="s">
+      <c r="C122" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="3">
+      <c r="D122" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C122&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;H&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E122" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1">
+      <c r="A123" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="3">
+    <row r="124" spans="1:5">
+      <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="D123" t="s">
+      <c r="C124" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="3">
+      <c r="D124" t="str">
+        <f t="shared" ref="D124" si="6">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C124&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;H2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E124" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1">
+      <c r="A125" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="3">
+    <row r="126" spans="1:5" hidden="1">
+      <c r="A126" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="3">
+    <row r="127" spans="1:5" hidden="1">
+      <c r="A127" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="3">
+    <row r="128" spans="1:5" hidden="1">
+      <c r="A128" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="3">
+    <row r="129" spans="1:5" hidden="1">
+      <c r="A129" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="3">
+    <row r="130" spans="1:5" hidden="1">
+      <c r="A130" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="3">
+    <row r="131" spans="1:5" hidden="1">
+      <c r="A131" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="3">
+    <row r="132" spans="1:5" hidden="1">
+      <c r="A132" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="3">
+    <row r="133" spans="1:5" hidden="1">
+      <c r="A133" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="3">
+    <row r="134" spans="1:5" hidden="1">
+      <c r="A134" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="3">
+    <row r="135" spans="1:5" hidden="1">
+      <c r="A135" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="3">
+    <row r="136" spans="1:5" hidden="1">
+      <c r="A136" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="3">
+    <row r="137" spans="1:5" hidden="1">
+      <c r="A137" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="3">
+    <row r="138" spans="1:5">
+      <c r="A138" s="3">
         <v>137</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>38</v>
       </c>
-      <c r="D137" t="s">
+      <c r="C138" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="3">
+      <c r="D138" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C138&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;I&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E138" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1">
+      <c r="A139" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="3">
+    <row r="140" spans="1:5" hidden="1">
+      <c r="A140" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="3">
+    <row r="141" spans="1:5" hidden="1">
+      <c r="A141" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="3">
+    <row r="142" spans="1:5">
+      <c r="A142" s="3">
         <v>141</v>
       </c>
-      <c r="D141" t="s">
+      <c r="C142" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="3">
+      <c r="D142" t="str">
+        <f t="shared" ref="D142" si="7">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C142&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;I2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E142" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1">
+      <c r="A143" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="3">
+    <row r="144" spans="1:5" hidden="1">
+      <c r="A144" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="3">
+    <row r="145" spans="1:5" hidden="1">
+      <c r="A145" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="3">
+    <row r="146" spans="1:5" hidden="1">
+      <c r="A146" s="3">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="3">
+    <row r="147" spans="1:5" hidden="1">
+      <c r="A147" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="3">
+    <row r="148" spans="1:5" hidden="1">
+      <c r="A148" s="3">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="3">
+    <row r="149" spans="1:5" hidden="1">
+      <c r="A149" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="3">
+    <row r="150" spans="1:5" hidden="1">
+      <c r="A150" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="3">
+    <row r="151" spans="1:5" hidden="1">
+      <c r="A151" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="3">
+    <row r="152" spans="1:5" hidden="1">
+      <c r="A152" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="3">
+    <row r="153" spans="1:5" hidden="1">
+      <c r="A153" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="3">
+    <row r="154" spans="1:5" hidden="1">
+      <c r="A154" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="3">
+    <row r="155" spans="1:5" hidden="1">
+      <c r="A155" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="3">
+    <row r="156" spans="1:5">
+      <c r="A156" s="3">
         <v>155</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>38</v>
       </c>
-      <c r="D155" t="s">
+      <c r="C156" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="3">
+      <c r="D156" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C156&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;K&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E156" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1">
+      <c r="A157" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="3">
+    <row r="158" spans="1:5">
+      <c r="A158" s="3">
         <v>157</v>
       </c>
-      <c r="D157" t="s">
+      <c r="C158" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="3">
+      <c r="D158" t="str">
+        <f t="shared" ref="D158" si="8">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C158&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;K2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E158" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" hidden="1">
+      <c r="A159" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="3">
+    <row r="160" spans="1:5" hidden="1">
+      <c r="A160" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="2" customFormat="1">
-      <c r="A160" s="2">
+    <row r="161" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="3">
+    <row r="162" spans="1:5" hidden="1">
+      <c r="A162" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="3">
+    <row r="163" spans="1:5" hidden="1">
+      <c r="A163" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="3">
+    <row r="164" spans="1:5" hidden="1">
+      <c r="A164" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="3">
+    <row r="165" spans="1:5" hidden="1">
+      <c r="A165" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="3">
+    <row r="166" spans="1:5" hidden="1">
+      <c r="A166" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="3">
+    <row r="167" spans="1:5" hidden="1">
+      <c r="A167" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="3">
+    <row r="168" spans="1:5" hidden="1">
+      <c r="A168" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="3">
+    <row r="169" spans="1:5" hidden="1">
+      <c r="A169" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="3">
+    <row r="170" spans="1:5" hidden="1">
+      <c r="A170" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="3">
+    <row r="171" spans="1:5" hidden="1">
+      <c r="A171" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="3">
+    <row r="172" spans="1:5" hidden="1">
+      <c r="A172" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="3">
+    <row r="173" spans="1:5" hidden="1">
+      <c r="A173" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="3">
+    <row r="174" spans="1:5">
+      <c r="A174" s="3">
         <v>173</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>38</v>
       </c>
-      <c r="D173" t="s">
+      <c r="C174" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="3">
+      <c r="D174" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C174&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;L&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E174" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" hidden="1">
+      <c r="A175" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="2" customFormat="1">
-      <c r="A175" s="2">
+    <row r="176" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A176" s="2">
         <v>175</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="3">
+    <row r="177" spans="1:5" hidden="1">
+      <c r="A177" s="3">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="3">
+    <row r="178" spans="1:5">
+      <c r="A178" s="3">
         <v>177</v>
       </c>
-      <c r="D177" t="s">
+      <c r="C178" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="3">
+      <c r="D178" t="str">
+        <f t="shared" ref="D178" si="9">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C178&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;L2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E178" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" hidden="1">
+      <c r="A179" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="3">
+    <row r="180" spans="1:5" hidden="1">
+      <c r="A180" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="3">
+    <row r="181" spans="1:5" hidden="1">
+      <c r="A181" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="3">
+    <row r="182" spans="1:5" hidden="1">
+      <c r="A182" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="3">
+    <row r="183" spans="1:5" hidden="1">
+      <c r="A183" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="3">
+    <row r="184" spans="1:5" hidden="1">
+      <c r="A184" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="3">
+    <row r="185" spans="1:5" hidden="1">
+      <c r="A185" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="3">
+    <row r="186" spans="1:5" hidden="1">
+      <c r="A186" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="3">
+    <row r="187" spans="1:5" hidden="1">
+      <c r="A187" s="3">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="3">
+    <row r="188" spans="1:5" hidden="1">
+      <c r="A188" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="3">
+    <row r="189" spans="1:5" hidden="1">
+      <c r="A189" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="3">
+    <row r="190" spans="1:5" hidden="1">
+      <c r="A190" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="3">
+    <row r="191" spans="1:5" hidden="1">
+      <c r="A191" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="3">
+    <row r="192" spans="1:5">
+      <c r="A192" s="3">
         <v>191</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>38</v>
       </c>
-      <c r="D191" t="s">
+      <c r="C192" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="3">
+      <c r="D192" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C192&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;M&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E192" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" hidden="1">
+      <c r="A193" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="3">
+    <row r="194" spans="1:5">
+      <c r="A194" s="3">
         <v>193</v>
       </c>
-      <c r="D193" t="s">
+      <c r="C194" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="3">
+      <c r="D194" t="str">
+        <f t="shared" ref="D194" si="10">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C194&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;M2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E194" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" hidden="1">
+      <c r="A195" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="3">
+    <row r="196" spans="1:5" hidden="1">
+      <c r="A196" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="3">
+    <row r="197" spans="1:5" hidden="1">
+      <c r="A197" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="3">
+    <row r="198" spans="1:5" hidden="1">
+      <c r="A198" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="3">
+    <row r="199" spans="1:5" hidden="1">
+      <c r="A199" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="3">
+    <row r="200" spans="1:5" hidden="1">
+      <c r="A200" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="3">
+    <row r="201" spans="1:5" hidden="1">
+      <c r="A201" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="3">
+    <row r="202" spans="1:5" hidden="1">
+      <c r="A202" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="3">
+    <row r="203" spans="1:5" hidden="1">
+      <c r="A203" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="3">
+    <row r="204" spans="1:5" hidden="1">
+      <c r="A204" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="3">
+    <row r="205" spans="1:5" hidden="1">
+      <c r="A205" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="3">
+    <row r="206" spans="1:5" hidden="1">
+      <c r="A206" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="3">
+    <row r="207" spans="1:5" hidden="1">
+      <c r="A207" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="3">
+    <row r="208" spans="1:5">
+      <c r="A208" s="3">
         <v>207</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>38</v>
       </c>
-      <c r="D207" t="s">
+      <c r="C208" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="3">
+      <c r="D208" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C208&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;N&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E208" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" hidden="1">
+      <c r="A209" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="3">
+    <row r="210" spans="1:5">
+      <c r="A210" s="3">
         <v>209</v>
       </c>
-      <c r="D209" t="s">
+      <c r="C210" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="3">
+      <c r="D210" t="str">
+        <f t="shared" ref="D210" si="11">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C210&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;N2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E210" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" hidden="1">
+      <c r="A211" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="3">
+    <row r="212" spans="1:5" hidden="1">
+      <c r="A212" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="3">
+    <row r="213" spans="1:5" hidden="1">
+      <c r="A213" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="3">
+    <row r="214" spans="1:5" hidden="1">
+      <c r="A214" s="3">
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="3">
+    <row r="215" spans="1:5" hidden="1">
+      <c r="A215" s="3">
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="3">
+    <row r="216" spans="1:5" hidden="1">
+      <c r="A216" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="3">
+    <row r="217" spans="1:5" hidden="1">
+      <c r="A217" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="3">
+    <row r="218" spans="1:5" hidden="1">
+      <c r="A218" s="3">
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="3">
+    <row r="219" spans="1:5" hidden="1">
+      <c r="A219" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="3">
+    <row r="220" spans="1:5" hidden="1">
+      <c r="A220" s="3">
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="3">
+    <row r="221" spans="1:5" hidden="1">
+      <c r="A221" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="3">
+    <row r="222" spans="1:5" hidden="1">
+      <c r="A222" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="3">
+    <row r="223" spans="1:5" hidden="1">
+      <c r="A223" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="3">
+    <row r="224" spans="1:5">
+      <c r="A224" s="3">
         <v>223</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>38</v>
       </c>
-      <c r="D223" t="s">
+      <c r="C224" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="3">
+      <c r="D224" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C224&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;O&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E224" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" hidden="1">
+      <c r="A225" s="3">
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="3">
+    <row r="226" spans="1:5">
+      <c r="A226" s="3">
         <v>225</v>
       </c>
-      <c r="D225" t="s">
+      <c r="C226" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="3">
+      <c r="D226" t="str">
+        <f t="shared" ref="D226" si="12">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C226&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;O2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E226" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" hidden="1">
+      <c r="A227" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="3">
+    <row r="228" spans="1:5" hidden="1">
+      <c r="A228" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="3">
+    <row r="229" spans="1:5" hidden="1">
+      <c r="A229" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="3">
+    <row r="230" spans="1:5" hidden="1">
+      <c r="A230" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="3">
+    <row r="231" spans="1:5" hidden="1">
+      <c r="A231" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="3">
+    <row r="232" spans="1:5" hidden="1">
+      <c r="A232" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="3">
+    <row r="233" spans="1:5" hidden="1">
+      <c r="A233" s="3">
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="3">
+    <row r="234" spans="1:5" hidden="1">
+      <c r="A234" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="3">
+    <row r="235" spans="1:5" hidden="1">
+      <c r="A235" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="3">
+    <row r="236" spans="1:5" hidden="1">
+      <c r="A236" s="3">
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="3">
+    <row r="237" spans="1:5" hidden="1">
+      <c r="A237" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="3">
+    <row r="238" spans="1:5" hidden="1">
+      <c r="A238" s="3">
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="3">
+    <row r="239" spans="1:5" hidden="1">
+      <c r="A239" s="3">
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="3">
+    <row r="240" spans="1:5">
+      <c r="A240" s="3">
         <v>239</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>38</v>
       </c>
-      <c r="D239" t="s">
+      <c r="C240" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="3">
+      <c r="D240" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C240&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;P&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E240" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" hidden="1">
+      <c r="A241" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="3">
+    <row r="242" spans="1:5">
+      <c r="A242" s="3">
         <v>241</v>
       </c>
-      <c r="D241" t="s">
+      <c r="C242" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="3">
+      <c r="D242" t="str">
+        <f t="shared" ref="D242" si="13">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C242&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;P2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E242" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" hidden="1">
+      <c r="A243" s="3">
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="3">
+    <row r="244" spans="1:5" hidden="1">
+      <c r="A244" s="3">
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="3">
+    <row r="245" spans="1:5" hidden="1">
+      <c r="A245" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="3">
+    <row r="246" spans="1:5" hidden="1">
+      <c r="A246" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="3">
+    <row r="247" spans="1:5" hidden="1">
+      <c r="A247" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="3">
+    <row r="248" spans="1:5" hidden="1">
+      <c r="A248" s="3">
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="3">
+    <row r="249" spans="1:5" hidden="1">
+      <c r="A249" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="3">
+    <row r="250" spans="1:5" hidden="1">
+      <c r="A250" s="3">
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="3">
+    <row r="251" spans="1:5" hidden="1">
+      <c r="A251" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="3">
+    <row r="252" spans="1:5" hidden="1">
+      <c r="A252" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="3">
+    <row r="253" spans="1:5" hidden="1">
+      <c r="A253" s="3">
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="3">
+    <row r="254" spans="1:5" hidden="1">
+      <c r="A254" s="3">
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="3">
+    <row r="255" spans="1:5" hidden="1">
+      <c r="A255" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="3">
+    <row r="256" spans="1:5">
+      <c r="A256" s="3">
         <v>255</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>38</v>
       </c>
-      <c r="D255" t="s">
+      <c r="C256" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="3">
+      <c r="D256" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C256&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;Q&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E256" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" hidden="1">
+      <c r="A257" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="3">
+    <row r="258" spans="1:5">
+      <c r="A258" s="3">
         <v>257</v>
       </c>
-      <c r="D257" t="s">
+      <c r="C258" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="3">
+      <c r="D258" t="str">
+        <f t="shared" ref="D258" si="14">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C258&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;Q2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E258" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" hidden="1">
+      <c r="A259" s="3">
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="3">
+    <row r="260" spans="1:5" hidden="1">
+      <c r="A260" s="3">
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="3">
+    <row r="261" spans="1:5" hidden="1">
+      <c r="A261" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="3">
+    <row r="262" spans="1:5" hidden="1">
+      <c r="A262" s="3">
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="3">
+    <row r="263" spans="1:5" hidden="1">
+      <c r="A263" s="3">
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="3">
+    <row r="264" spans="1:5" hidden="1">
+      <c r="A264" s="3">
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="3">
+    <row r="265" spans="1:5" hidden="1">
+      <c r="A265" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="3">
+    <row r="266" spans="1:5" hidden="1">
+      <c r="A266" s="3">
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="3">
+    <row r="267" spans="1:5" hidden="1">
+      <c r="A267" s="3">
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="3">
+    <row r="268" spans="1:5" hidden="1">
+      <c r="A268" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="3">
+    <row r="269" spans="1:5" hidden="1">
+      <c r="A269" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="3">
+    <row r="270" spans="1:5" hidden="1">
+      <c r="A270" s="3">
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="3">
+    <row r="271" spans="1:5" hidden="1">
+      <c r="A271" s="3">
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="3">
+    <row r="272" spans="1:5">
+      <c r="A272" s="3">
         <v>271</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B272" t="s">
         <v>38</v>
       </c>
-      <c r="D271" t="s">
+      <c r="C272" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="3">
+      <c r="D272" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C272&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;R&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E272" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" hidden="1">
+      <c r="A273" s="3">
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="3">
+    <row r="274" spans="1:5">
+      <c r="A274" s="3">
         <v>273</v>
       </c>
-      <c r="D273" t="s">
+      <c r="C274" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="3">
+      <c r="D274" t="str">
+        <f t="shared" ref="D274" si="15">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C274&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;R2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E274" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" hidden="1">
+      <c r="A275" s="3">
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="3">
+    <row r="276" spans="1:5" hidden="1">
+      <c r="A276" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="3">
+    <row r="277" spans="1:5" hidden="1">
+      <c r="A277" s="3">
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="3">
+    <row r="278" spans="1:5" hidden="1">
+      <c r="A278" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="3">
+    <row r="279" spans="1:5" hidden="1">
+      <c r="A279" s="3">
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="3">
+    <row r="280" spans="1:5" hidden="1">
+      <c r="A280" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="3">
+    <row r="281" spans="1:5" hidden="1">
+      <c r="A281" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="3">
+    <row r="282" spans="1:5" hidden="1">
+      <c r="A282" s="3">
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="3">
+    <row r="283" spans="1:5" hidden="1">
+      <c r="A283" s="3">
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="3">
+    <row r="284" spans="1:5" hidden="1">
+      <c r="A284" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="3">
+    <row r="285" spans="1:5" hidden="1">
+      <c r="A285" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="3">
+    <row r="286" spans="1:5" hidden="1">
+      <c r="A286" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="3">
+    <row r="287" spans="1:5" hidden="1">
+      <c r="A287" s="3">
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="3">
+    <row r="288" spans="1:5">
+      <c r="A288" s="3">
         <v>287</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B288" t="s">
         <v>38</v>
       </c>
-      <c r="D287" t="s">
+      <c r="C288" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="3">
+      <c r="D288" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C288&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;S&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E288" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" hidden="1">
+      <c r="A289" s="3">
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="3">
+    <row r="290" spans="1:5">
+      <c r="A290" s="3">
         <v>289</v>
       </c>
-      <c r="D289" t="s">
+      <c r="C290" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="3">
+      <c r="D290" t="str">
+        <f t="shared" ref="D290" si="16">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C290&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;S2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E290" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" hidden="1">
+      <c r="A291" s="3">
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="3">
+    <row r="292" spans="1:5" hidden="1">
+      <c r="A292" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="3">
+    <row r="293" spans="1:5" hidden="1">
+      <c r="A293" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="3">
+    <row r="294" spans="1:5" hidden="1">
+      <c r="A294" s="3">
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="3">
+    <row r="295" spans="1:5" hidden="1">
+      <c r="A295" s="3">
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="3">
+    <row r="296" spans="1:5" hidden="1">
+      <c r="A296" s="3">
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="3">
+    <row r="297" spans="1:5" hidden="1">
+      <c r="A297" s="3">
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="3">
+    <row r="298" spans="1:5" hidden="1">
+      <c r="A298" s="3">
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="3">
+    <row r="299" spans="1:5" hidden="1">
+      <c r="A299" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="3">
+    <row r="300" spans="1:5" hidden="1">
+      <c r="A300" s="3">
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="3">
+    <row r="301" spans="1:5" hidden="1">
+      <c r="A301" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="3">
+    <row r="302" spans="1:5" hidden="1">
+      <c r="A302" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="3">
+    <row r="303" spans="1:5" hidden="1">
+      <c r="A303" s="3">
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="3">
+    <row r="304" spans="1:5" hidden="1">
+      <c r="A304" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="3">
+    <row r="305" spans="1:5" hidden="1">
+      <c r="A305" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="3">
+    <row r="306" spans="1:5">
+      <c r="A306" s="3">
         <v>305</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B306" t="s">
         <v>38</v>
       </c>
-      <c r="D305" t="s">
+      <c r="C306" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="3">
+      <c r="D306" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C306&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;T&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E306" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" hidden="1">
+      <c r="A307" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="3">
+    <row r="308" spans="1:5">
+      <c r="A308" s="3">
         <v>307</v>
       </c>
-      <c r="D307" t="s">
+      <c r="C308" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="3">
+      <c r="D308" t="str">
+        <f t="shared" ref="D308" si="17">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C308&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;T2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E308" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" hidden="1">
+      <c r="A309" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="3">
+    <row r="310" spans="1:5" hidden="1">
+      <c r="A310" s="3">
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="3">
+    <row r="311" spans="1:5" hidden="1">
+      <c r="A311" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="3">
+    <row r="312" spans="1:5" hidden="1">
+      <c r="A312" s="3">
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="3">
+    <row r="313" spans="1:5" hidden="1">
+      <c r="A313" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="3">
+    <row r="314" spans="1:5" hidden="1">
+      <c r="A314" s="3">
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="3">
+    <row r="315" spans="1:5" hidden="1">
+      <c r="A315" s="3">
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="3">
+    <row r="316" spans="1:5" hidden="1">
+      <c r="A316" s="3">
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="3">
+    <row r="317" spans="1:5" hidden="1">
+      <c r="A317" s="3">
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="3">
+    <row r="318" spans="1:5" hidden="1">
+      <c r="A318" s="3">
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="3">
+    <row r="319" spans="1:5" hidden="1">
+      <c r="A319" s="3">
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="3">
+    <row r="320" spans="1:5" hidden="1">
+      <c r="A320" s="3">
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="3">
+    <row r="321" spans="1:5" hidden="1">
+      <c r="A321" s="3">
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="3">
+    <row r="322" spans="1:5">
+      <c r="A322" s="3">
         <v>321</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B322" t="s">
         <v>38</v>
       </c>
-      <c r="D321" t="s">
+      <c r="C322" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="3">
+      <c r="D322" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C322&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;U&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E322" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" hidden="1">
+      <c r="A323" s="3">
         <v>322</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="3">
+    <row r="324" spans="1:5">
+      <c r="A324" s="3">
         <v>323</v>
       </c>
-      <c r="D323" t="s">
+      <c r="C324" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="3">
+      <c r="D324" t="str">
+        <f t="shared" ref="D324" si="18">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C324&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;U2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E324" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" hidden="1">
+      <c r="A325" s="3">
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="3">
+    <row r="326" spans="1:5" hidden="1">
+      <c r="A326" s="3">
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="3">
+    <row r="327" spans="1:5" hidden="1">
+      <c r="A327" s="3">
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="3">
+    <row r="328" spans="1:5" hidden="1">
+      <c r="A328" s="3">
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:4" s="2" customFormat="1">
-      <c r="A328" s="2">
+    <row r="329" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A329" s="2">
         <v>328</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B329" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D328" s="2" t="s">
+      <c r="C329" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="3">
+    <row r="330" spans="1:5" hidden="1">
+      <c r="A330" s="3">
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="3">
+    <row r="331" spans="1:5" hidden="1">
+      <c r="A331" s="3">
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="1:4" s="2" customFormat="1">
-      <c r="A331" s="2">
+    <row r="332" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A332" s="2">
         <v>331</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B332" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D331" s="2" t="s">
+      <c r="C332" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="3">
+    <row r="333" spans="1:5" hidden="1">
+      <c r="A333" s="3">
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="3">
+    <row r="334" spans="1:5" hidden="1">
+      <c r="A334" s="3">
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="3">
+    <row r="335" spans="1:5" hidden="1">
+      <c r="A335" s="3">
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="3">
+    <row r="336" spans="1:5" hidden="1">
+      <c r="A336" s="3">
         <v>335</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="3">
+    <row r="337" spans="1:5" hidden="1">
+      <c r="A337" s="3">
         <v>336</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="3">
+    <row r="338" spans="1:5" hidden="1">
+      <c r="A338" s="3">
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="3">
+    <row r="339" spans="1:5" hidden="1">
+      <c r="A339" s="3">
         <v>338</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="3">
+    <row r="340" spans="1:5" hidden="1">
+      <c r="A340" s="3">
         <v>339</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="3">
+    <row r="341" spans="1:5" hidden="1">
+      <c r="A341" s="3">
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="3">
+    <row r="342" spans="1:5" hidden="1">
+      <c r="A342" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="3">
+    <row r="343" spans="1:5" hidden="1">
+      <c r="A343" s="3">
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="3">
+    <row r="344" spans="1:5" hidden="1">
+      <c r="A344" s="3">
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="3">
+    <row r="345" spans="1:5" hidden="1">
+      <c r="A345" s="3">
         <v>344</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="3">
+    <row r="346" spans="1:5">
+      <c r="A346" s="3">
         <v>345</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B346" t="s">
         <v>38</v>
       </c>
-      <c r="D345" t="s">
+      <c r="C346" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="3">
+      <c r="D346" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C346&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;X&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E346" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" hidden="1">
+      <c r="A347" s="3">
         <v>346</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="3">
+    <row r="348" spans="1:5">
+      <c r="A348" s="3">
         <v>347</v>
       </c>
-      <c r="D347" t="s">
+      <c r="C348" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="3">
+      <c r="D348" t="str">
+        <f t="shared" ref="D348" si="19">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C348&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;X2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E348" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" hidden="1">
+      <c r="A349" s="3">
         <v>348</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="3">
+    <row r="350" spans="1:5" hidden="1">
+      <c r="A350" s="3">
         <v>349</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="3">
+    <row r="351" spans="1:5" hidden="1">
+      <c r="A351" s="3">
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="3">
+    <row r="352" spans="1:5" hidden="1">
+      <c r="A352" s="3">
         <v>351</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="3">
+    <row r="353" spans="1:5" hidden="1">
+      <c r="A353" s="3">
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="3">
+    <row r="354" spans="1:5" hidden="1">
+      <c r="A354" s="3">
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="3">
+    <row r="355" spans="1:5" hidden="1">
+      <c r="A355" s="3">
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="3">
+    <row r="356" spans="1:5" hidden="1">
+      <c r="A356" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="2" customFormat="1">
-      <c r="A356" s="2">
+    <row r="357" spans="1:5" s="2" customFormat="1" hidden="1">
+      <c r="A357" s="2">
         <v>356</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B357" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D356" s="2" t="s">
+      <c r="C357" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="3">
+    <row r="358" spans="1:5" hidden="1">
+      <c r="A358" s="3">
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="3">
+    <row r="359" spans="1:5" hidden="1">
+      <c r="A359" s="3">
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="3">
+    <row r="360" spans="1:5" hidden="1">
+      <c r="A360" s="3">
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="3">
+    <row r="361" spans="1:5" hidden="1">
+      <c r="A361" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="3">
+    <row r="362" spans="1:5" hidden="1">
+      <c r="A362" s="3">
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="3">
+    <row r="363" spans="1:5" hidden="1">
+      <c r="A363" s="3">
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="3">
+    <row r="364" spans="1:5">
+      <c r="A364" s="3">
         <v>363</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B364" t="s">
         <v>38</v>
       </c>
-      <c r="D363" t="s">
+      <c r="C364" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="3">
+      <c r="D364" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C364&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;Y&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E364" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" hidden="1">
+      <c r="A365" s="3">
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="3">
+    <row r="366" spans="1:5">
+      <c r="A366" s="3">
         <v>365</v>
       </c>
-      <c r="D365" t="s">
+      <c r="C366" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="3">
+      <c r="D366" t="str">
+        <f t="shared" ref="D366" si="20">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C366&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;Y2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E366" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" hidden="1">
+      <c r="A367" s="3">
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="3">
+    <row r="368" spans="1:5" hidden="1">
+      <c r="A368" s="3">
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="3">
+    <row r="369" spans="1:5" hidden="1">
+      <c r="A369" s="3">
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="3">
+    <row r="370" spans="1:5" hidden="1">
+      <c r="A370" s="3">
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="3">
+    <row r="371" spans="1:5" hidden="1">
+      <c r="A371" s="3">
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="3">
+    <row r="372" spans="1:5" hidden="1">
+      <c r="A372" s="3">
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="3">
+    <row r="373" spans="1:5" hidden="1">
+      <c r="A373" s="3">
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="3">
+    <row r="374" spans="1:5" hidden="1">
+      <c r="A374" s="3">
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="3">
+    <row r="375" spans="1:5" hidden="1">
+      <c r="A375" s="3">
         <v>374</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="3">
+    <row r="376" spans="1:5" hidden="1">
+      <c r="A376" s="3">
         <v>375</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="3">
+    <row r="377" spans="1:5" hidden="1">
+      <c r="A377" s="3">
         <v>376</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="3">
+    <row r="378" spans="1:5" hidden="1">
+      <c r="A378" s="3">
         <v>377</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="3">
+    <row r="379" spans="1:5" hidden="1">
+      <c r="A379" s="3">
         <v>378</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="3">
+    <row r="380" spans="1:5">
+      <c r="A380" s="3">
         <v>379</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B380" t="s">
         <v>38</v>
       </c>
-      <c r="D379" t="s">
+      <c r="C380" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="3">
+      <c r="D380" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C380&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;Z&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E380" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" hidden="1">
+      <c r="A381" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="3">
+    <row r="382" spans="1:5">
+      <c r="A382" s="3">
         <v>381</v>
       </c>
-      <c r="D381" t="s">
+      <c r="C382" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="3">
+      <c r="D382" t="str">
+        <f t="shared" ref="D382" si="21">"&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;"&amp;C382&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw place=%inspace%&gt;&lt;seg rend=%right%&gt;Z2&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E382" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" hidden="1">
+      <c r="A383" s="3">
         <v>382</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="3">
+    <row r="384" spans="1:5" hidden="1">
+      <c r="A384" s="3">
         <v>383</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="3">
+    <row r="385" spans="1:5" hidden="1">
+      <c r="A385" s="3">
         <v>384</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="3">
+    <row r="386" spans="1:5" hidden="1">
+      <c r="A386" s="3">
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="3">
+    <row r="387" spans="1:5" hidden="1">
+      <c r="A387" s="3">
         <v>386</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="3">
+    <row r="388" spans="1:5">
+      <c r="A388" s="3">
         <v>387</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B388" t="s">
         <v>38</v>
       </c>
-      <c r="D387" t="s">
+      <c r="C388" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="3">
+      <c r="D388" t="str">
+        <f>"&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;"&amp;C388&amp;"&lt;/seg&gt;&lt;/fw&gt;"</f>
+        <v>&lt;fw type=%catch%&gt;&lt;seg rend=%smallcaps%&gt;&lt;choice&gt;&lt;abbr&gt;Vol.&lt;/abbr&gt;&lt;expan&gt;Volume&lt;/expan&gt;&lt;/choice&gt; I.&lt;/seg&gt;&lt;seg rend=%right%&gt;2A&lt;/seg&gt;&lt;/fw&gt;</v>
+      </c>
+      <c r="E388" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" hidden="1">
+      <c r="A389" s="3">
         <v>388</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="3">
+    <row r="390" spans="1:5" hidden="1">
+      <c r="A390" s="3">
         <v>389</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="3">
+    <row r="391" spans="1:5" hidden="1">
+      <c r="A391" s="3">
         <v>390</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="3">
+    <row r="392" spans="1:5" hidden="1">
+      <c r="A392" s="3">
         <v>391</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="3">
+    <row r="393" spans="1:5" hidden="1">
+      <c r="A393" s="3">
         <v>392</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="3">
+    <row r="394" spans="1:5" hidden="1">
+      <c r="A394" s="3">
         <v>393</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="3">
+    <row r="395" spans="1:5" hidden="1">
+      <c r="A395" s="3">
         <v>394</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="3">
+    <row r="396" spans="1:5" hidden="1">
+      <c r="A396" s="3">
         <v>395</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="3">
+    <row r="397" spans="1:5" hidden="1">
+      <c r="A397" s="3">
         <v>396</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="3">
+    <row r="398" spans="1:5" hidden="1">
+      <c r="A398" s="3">
         <v>397</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="3">
+    <row r="399" spans="1:5" hidden="1">
+      <c r="A399" s="3">
         <v>398</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="3">
+    <row r="400" spans="1:5" hidden="1">
+      <c r="A400" s="3">
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="3">
+    <row r="401" spans="1:1" hidden="1">
+      <c r="A401" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
-      <c r="A401" s="3">
+    <row r="402" spans="1:1" hidden="1">
+      <c r="A402" s="3">
         <v>401</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
-      <c r="A402" s="3">
+    <row r="403" spans="1:1" hidden="1">
+      <c r="A403" s="3">
         <v>402</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
-      <c r="A403" s="3">
+    <row r="404" spans="1:1" hidden="1">
+      <c r="A404" s="3">
         <v>403</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
-      <c r="A404" s="3">
+    <row r="405" spans="1:1" hidden="1">
+      <c r="A405" s="3">
         <v>404</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
-      <c r="A405" s="3">
+    <row r="406" spans="1:1" hidden="1">
+      <c r="A406" s="3">
         <v>405</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
-      <c r="A406" s="3">
+    <row r="407" spans="1:1" hidden="1">
+      <c r="A407" s="3">
         <v>406</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
-      <c r="A407" s="3">
+    <row r="408" spans="1:1" hidden="1">
+      <c r="A408" s="3">
         <v>407</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
-      <c r="A408" s="3">
+    <row r="409" spans="1:1" hidden="1">
+      <c r="A409" s="3">
         <v>408</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
-      <c r="A409" s="3">
+    <row r="410" spans="1:1" hidden="1">
+      <c r="A410" s="3">
         <v>409</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
-      <c r="A410" s="3">
+    <row r="411" spans="1:1" hidden="1">
+      <c r="A411" s="3">
         <v>410</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
-      <c r="A411" s="3">
+    <row r="412" spans="1:1" hidden="1">
+      <c r="A412" s="3">
         <v>411</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
-      <c r="A412" s="3">
+    <row r="413" spans="1:1" hidden="1">
+      <c r="A413" s="3">
         <v>412</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
-      <c r="A413" s="3">
+    <row r="414" spans="1:1" hidden="1">
+      <c r="A414" s="3">
         <v>413</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
-      <c r="A414" s="3">
+    <row r="415" spans="1:1" hidden="1">
+      <c r="A415" s="3">
         <v>414</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
-      <c r="A415" s="3">
+    <row r="416" spans="1:1" hidden="1">
+      <c r="A416" s="3">
         <v>415</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
-      <c r="A416" s="3">
+    <row r="417" spans="1:1" hidden="1">
+      <c r="A417" s="3">
         <v>416</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E417">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
